--- a/factorielTest/factorialFunctionTestExcel.xlsx
+++ b/factorielTest/factorialFunctionTestExcel.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Details</t>
+  </si>
+  <si>
+    <t>factorielTest/testComplexNumbers</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +437,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.3114E-3</v>
+        <v>1.0650199999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -451,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2.0953E-3</v>
+        <v>2.9557999999999997E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -468,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.8701E-3</v>
+        <v>2.8760999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -485,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.875E-3</v>
+        <v>6.7183000000000008E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -502,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.9043000000000004E-3</v>
+        <v>6.7672999999999995E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -519,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.1199000000000001E-3</v>
+        <v>2.8725999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -536,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2.9475999999999999E-3</v>
+        <v>2.5345000000000003E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -553,7 +556,24 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.5685999999999999E-3</v>
+        <v>3.2951000000000005E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>7.3391999999999997E-3</v>
       </c>
     </row>
   </sheetData>
